--- a/medicine/Mort/Cimetière_de_Mount_Jerome/Cimetière_de_Mount_Jerome.xlsx
+++ b/medicine/Mort/Cimetière_de_Mount_Jerome/Cimetière_de_Mount_Jerome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Mount_Jerome</t>
+          <t>Cimetière_de_Mount_Jerome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière et crématorium de Mount Jerome (en irlandais : Reilig Chnocán Iaróm) est situé à Harold's Cross, au sud de Dublin, en Irlande[1]. Depuis sa fondation en 1836, plus de 300 000 enterrements y ont eu lieu. Cimetière à l'origine exclusivement protestant, les catholiques sont également enterrés depuis les années 1920.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière et crématorium de Mount Jerome (en irlandais : Reilig Chnocán Iaróm) est situé à Harold's Cross, au sud de Dublin, en Irlande. Depuis sa fondation en 1836, plus de 300 000 enterrements y ont eu lieu. Cimetière à l'origine exclusivement protestant, les catholiques sont également enterrés depuis les années 1920.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Mount_Jerome</t>
+          <t>Cimetière_de_Mount_Jerome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du cimetière vient d'un domaine établi à cet endroit par le révérend Stephen Jerome, vicaire de la paroisse St. Kevin en 1639. À cette époque, Harold's Cross faisait partie de la paroisse de St. Kevin. Dans la seconde moitié du XVIIe siècle, le terrain devient la propriété du comte de Meath, qui à son tour loue des parcelles à d'éminentes familles de Dublin. Une maison, Mount Jerome House, est construite sur l'une de ces parcelles et louée à John Keogh. En 1834, après une tentative avortée de créer un cimetière à Phoenix Park, la General Cemetery Company de Dublin achète la propriété de Mount Jerome, « pour établir un cimetière général dans les environs de la ville de Dublin »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du cimetière vient d'un domaine établi à cet endroit par le révérend Stephen Jerome, vicaire de la paroisse St. Kevin en 1639. À cette époque, Harold's Cross faisait partie de la paroisse de St. Kevin. Dans la seconde moitié du XVIIe siècle, le terrain devient la propriété du comte de Meath, qui à son tour loue des parcelles à d'éminentes familles de Dublin. Une maison, Mount Jerome House, est construite sur l'une de ces parcelles et louée à John Keogh. En 1834, après une tentative avortée de créer un cimetière à Phoenix Park, la General Cemetery Company de Dublin achète la propriété de Mount Jerome, « pour établir un cimetière général dans les environs de la ville de Dublin ».
 La chapelle funéraire du cimetière a été la première église gothique puginienne de Dublin. Elle est conçue par William Atkins.
 En 2000, le cimetière Mount Jerome a établi son propre crématorium sur le site.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Mount_Jerome</t>
+          <t>Cimetière_de_Mount_Jerome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les personnes notables enterrées ici incluent[3],[4]: 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les personnes notables enterrées ici incluent,: 
 Robert Adams (1791-1875), médecin et professeur de chirurgie
 Maeve Binchy (1940-2012), auteur (incinéré)
 Fritz Brase (1875–1940), musicien et compositeur militaire allemand
@@ -564,7 +580,7 @@
 Paddy Daly (1888-1957), membre de l'IRA pendant la guerre d'indépendance et plus tard major-général de l'armée irlandaise
 Achille Daunt (1832-1878), prédicateur et homiliste
 Lilian Davidson (1879-1954) artiste irlandaise
-Derek Davis (1948-2015), diffuseur[5]
+Derek Davis (1948-2015), diffuseur
 Thomas Davis (1814-1845), journaliste, homme politique, fondateur du journal The Nation
 Thomas Drummond (1797-1840), arpenteur, sous-secrétaire pour l'Irlande
 Prof George Francis Fitzgerald (1851-1901), physicien
@@ -583,7 +599,7 @@
 John Edward Jones (1806-1862), ingénieur civil et sculpteur
 David Kelly (1929-2012), acteur (incinéré)
 Joseph Robinson Kirk (1821-1894), sculpteur, qui a également exécuté la figure sur le mémorial de son père, Thomas
-Thomas Kirk (1781-1845), sculpteur, qui a également conçu le mausolée Butler dans ce cimetière[6]
+Thomas Kirk (1781-1845), sculpteur, qui a également conçu le mausolée Butler dans ce cimetière
 John Mitchell Kemble, universitaire
 Joseph Sheridan Le Fanu (1814-1873), écrivain et éditeur, avec sa femme, Susanna Bennett, son père et ses deux frères, dans la même chambre forte.
 Thomas Hawkesworth Ledwich (1823-1858), chirurgien et anatomiste
@@ -595,10 +611,10 @@
 William Fetherstone Montgomery (1797-1859), obstétricien
 Hans Garrett Moore VC (1830-1889), soldat
 Arthur Thomas Moore VC (1830-1912), soldat
-Sir Richard Morrison (1767-1849), architecte (Pro-cathédrale, Trinity College, etc.)[6]
+Sir Richard Morrison (1767-1849), architecte (Pro-cathédrale, Trinity College, etc.)
 William Vitruvius Morrison (1794-1838), architecte ; fils et partenaire de Richard Morrison
 John Skipton Mulvany (1813-1870), architecte qui a également conçu un certain nombre de monuments dans ce cimetière, y compris le monument Mahony et les caveaux Perry et West
-Máirtín Ó Cadhain (1906-1970), écrivain irlandais[7]
+Máirtín Ó Cadhain (1906-1970), écrivain irlandais
 Máirtín Ó Direáin (1910-1988), poète irlandais
 Walter Osborne (1859-1903), artiste
 William McFadden Orr (1866-1934), mathématicien
@@ -610,7 +626,7 @@
 Sarah Purser (1848-1943), artiste
 George Russell (1867-1935), écrivain, artiste
 Anne Margaret Rowan (1832-1913), romancière, historienne et militante politique irlandaise
-Cecil Sheridan (1910-1980), comédien et acteur[8]
+Cecil Sheridan (1910-1980), comédien et acteur
 John Skelton (1924-2009), artiste et illustrateur
 Ellen Smyly (1815-1901) fondatrice des Smyly Homes
 Robert William Smith (1807-1873), pathologiste
@@ -618,13 +634,13 @@
 John Millington Synge (1871-1909), dramaturge
 Isaac Weld (1774-1856), écrivain topographique, explorateur et artiste
 William Wilde, père d'Oscar Wilde. Son épouse, Jane Francesca Elgee, est commémorée sur le monument de Sir William, mais elle est enterrée au cimetière de Kensal Green à Londres.
-S. Allen Windle (1828-1880), aumônier de l'église des marins, Dún Laoghaire[9]
+S. Allen Windle (1828-1880), aumônier de l'église des marins, Dún Laoghaire
 Edward Percival Wright (1834-1910), chirurgien ophtalmique, botaniste et zoologiste
 Jack Butler Yeats (1871-1957), artiste
-Il y a un grand espace dédié aux membres de la Royal Irish Constabulary et de la Dublin Metropolitan Police[3].
-Le cimetière contient les sépultures de guerre de 35 militaires du Commonwealth britannique de la Première Guerre mondiale et 39 de la Seconde Guerre mondiale[10].
-Les restes des huguenots français du cimetière de l'église Saint-Pierre, Peter's Row (maintenant l'emplacement de la YMCA de Dublin), démoli dans les années 1980, et des cimetières de St. Brigid et St. Thomas, sont enterrés dans le cimetière[3],[11].
-Plus de 200 enfants de mères célibataires morts dans la maison protestante de Bethany Home sont enterrés dans des tombes anonymes du cimetière[12]. Il y a un espace où sont enterrés des enfants sans nom de Kirwan House, l'orphelinat protestant.
+Il y a un grand espace dédié aux membres de la Royal Irish Constabulary et de la Dublin Metropolitan Police.
+Le cimetière contient les sépultures de guerre de 35 militaires du Commonwealth britannique de la Première Guerre mondiale et 39 de la Seconde Guerre mondiale.
+Les restes des huguenots français du cimetière de l'église Saint-Pierre, Peter's Row (maintenant l'emplacement de la YMCA de Dublin), démoli dans les années 1980, et des cimetières de St. Brigid et St. Thomas, sont enterrés dans le cimetière,.
+Plus de 200 enfants de mères célibataires morts dans la maison protestante de Bethany Home sont enterrés dans des tombes anonymes du cimetière. Il y a un espace où sont enterrés des enfants sans nom de Kirwan House, l'orphelinat protestant.
 Les enterrements récents incluent le célèbre Martin Cahill (1949-1994) (connu sous le nom de « Le Général »). Sa pierre tombale a été vandalisée à plusieurs reprises et est actuellement brisée en deux, la moitié supérieure
 </t>
         </is>
@@ -636,7 +652,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Mount_Jerome</t>
+          <t>Cimetière_de_Mount_Jerome</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -654,9 +670,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière possède l'un des deux seuls buissons Paliurus spina-christi en Irlande. L'autre se trouve dans les jardins botaniques[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière possède l'un des deux seuls buissons Paliurus spina-christi en Irlande. L'autre se trouve dans les jardins botaniques.
 </t>
         </is>
       </c>
